--- a/public/assets/uploads/Uploads/rol/rol_distributor_HO.xlsx
+++ b/public/assets/uploads/Uploads/rol/rol_distributor_HO.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="rol_distributor_HO" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -388,7 +386,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -485,28 +483,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/assets/uploads/Uploads/rol/rol_distributor_HO.xlsx
+++ b/public/assets/uploads/Uploads/rol/rol_distributor_HO.xlsx
@@ -85,10 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,17 +387,18 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -406,76 +408,76 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>58515696</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>58515696</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>58515696</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>30</v>
       </c>
     </row>

--- a/public/assets/uploads/Uploads/rol/rol_distributor_HO.xlsx
+++ b/public/assets/uploads/Uploads/rol/rol_distributor_HO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Distributor Code</t>
   </si>
@@ -387,7 +387,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,9 +437,6 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
@@ -448,9 +445,6 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
-        <v>58515696</v>
-      </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
@@ -465,9 +459,7 @@
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="2">
         <v>58515696</v>
       </c>

--- a/public/assets/uploads/Uploads/rol/rol_distributor_HO.xlsx
+++ b/public/assets/uploads/Uploads/rol/rol_distributor_HO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Distributor Code</t>
   </si>
@@ -28,28 +28,10 @@
     <t>Product SKU Name</t>
   </si>
   <si>
-    <t>0000014</t>
-  </si>
-  <si>
-    <t>abc6</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
     <t>Rol Quantity</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>kg/ltr</t>
-  </si>
-  <si>
-    <t>packages</t>
   </si>
 </sst>
 </file>
@@ -85,11 +67,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -415,62 +396,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>58515696</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2">
-        <v>58515696</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
